--- a/output/StructureDefinition-contactpoint-viaintermediary.xlsx
+++ b/output/StructureDefinition-contactpoint-viaintermediary.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/contactpoint-viaintermediary</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-viaintermediary</t>
   </si>
   <si>
     <t>Version</t>
@@ -357,7 +357,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-contactpoint-viaintermediary.xlsx
+++ b/output/StructureDefinition-contactpoint-viaintermediary.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-viaintermediary</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-viaintermediary</t>
   </si>
   <si>
     <t>Version</t>
@@ -357,7 +357,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-contactpoint-viaintermediary.xlsx
+++ b/output/StructureDefinition-contactpoint-viaintermediary.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-viaintermediary</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-viaintermediary</t>
   </si>
   <si>
     <t>Version</t>
@@ -357,7 +357,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-OrganizationAffiliation|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
